--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>16-09-2024_ 15:26:57</t>
+          <t>17-09-2024_ 13:55:26</t>
         </is>
       </c>
     </row>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -65,11 +65,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,17 +447,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D1:D3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.3"/>
   <cols>
     <col width="2.875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="15.875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="17.375" customWidth="1" min="3" max="3"/>
+    <col width="103.875" customWidth="1" min="3" max="3"/>
     <col width="17.625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -478,9 +477,14 @@
           <t>Link</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>17-09-2024_ 13:55:26</t>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>17-09-2024 15:30:24</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>17-09-2024 15:30:34</t>
         </is>
       </c>
     </row>
@@ -501,6 +505,9 @@
       <c r="D2" t="n">
         <v>9806</v>
       </c>
+      <c r="E2" t="n">
+        <v>9806</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -517,6 +524,9 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
